--- a/WebSite/Upload/Sample/대리점_재고업로드_의류(세로).xlsx
+++ b/WebSite/Upload/Sample/대리점_재고업로드_의류(세로).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>**.마커어패럴-대리점 재고 엑셀 업로드 파일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,14 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MK-112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MK-112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MK-113</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3XL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,31 +88,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;-3행부터 스타일번호, 사이즈별 수량, 재고수량 순으로 입력하면 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>; 한 라인에 한 스타일번호, 한 사이즈명만 입력합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>; 중복된 스타일번호, 사이즈명이 있을 때는 나중에 있는 것으로 대치됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>; 스타일번호, 싸이즈명은 마커 본사에서 제공한 것 이어야만 합니다.  (만약에 본사에 없는 스타일번호나 사이즈명은 오류 메시지 후 종료....)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>; 중간 행에 공백이 없이 입력합니다. (공백이 있으면 그 라인 전 까지 행만 처리합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 양식을 예를 들면 --&gt; 7행까지만 처리되고 8행 이부터는 무시됩니다.</t>
+    <t>&lt;-3행부터 스타일번호, 사이즈별 수량, 재고수량 순으로 입력하면 됩니다. (기존 내용은 예제이니 지우고 사용하십시오…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; 본사에 없는 스타일번호, 사이즈명은 오류 메시지 후 업-로드가 중지됩니다. (5번 라인과 같은 경우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; 중간 행에 공백이 없이 입력하며, 공백이 있으면 그 라인을 마지막으로 인식합니다. (8번 라인부터는 무시됩니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY-112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK-111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; 중복된 스타일번호+사이즈명이 있을 경우에는 오류메세지 후 업-로드가 중지됩니다. (6번 라인이 3번 라인과 중복됨)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,8 +148,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,12 +188,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -381,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,9 +409,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -420,9 +421,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -435,16 +433,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -749,14 +749,14 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="12" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="16" customWidth="1"/>
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="5" max="5" width="3.375" customWidth="1"/>
     <col min="6" max="6" width="5.5" customWidth="1"/>
@@ -774,140 +774,130 @@
       <c r="C1" s="19"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O2"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="15">
+        <v>11</v>
+      </c>
+      <c r="C3" s="13">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="16">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>8</v>
+      <c r="A5" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="16">
+        <v>23</v>
+      </c>
+      <c r="C5" s="14">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>9</v>
+      <c r="A6" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="16">
+        <v>11</v>
+      </c>
+      <c r="C6" s="14">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>10</v>
+      <c r="A7" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="16"/>
-      <c r="F8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>11</v>
+      <c r="A9" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="17"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
